--- a/src/data2.xlsx
+++ b/src/data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanyoung/ryayoung/python-packages/tsopt/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8083E9F-A151-3241-91F5-354778D44DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4144E750-AD14-CE4D-8B13-A87A69FF8B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60160" yWindow="12260" windowWidth="34560" windowHeight="21580" activeTab="6" xr2:uid="{7331F2A5-06C7-524A-A2F1-39512633D845}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -897,7 +897,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -976,9 +976,9 @@
         <f>IF(ISBLANK(TESTS!H7),"",TESTS!H7)</f>
         <v/>
       </c>
-      <c r="E3">
+      <c r="E3" t="str">
         <f>IF(ISBLANK(TESTS!I7),"",TESTS!I7)</f>
-        <v>20</v>
+        <v/>
       </c>
       <c r="F3" t="str">
         <f>IF(ISBLANK(TESTS!J7),"",TESTS!J7)</f>
@@ -1001,15 +1001,15 @@
       </c>
       <c r="C4">
         <f>IF(ISBLANK(TESTS!G8),"",TESTS!G8)</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <f>IF(ISBLANK(TESTS!H8),"",TESTS!H8)</f>
-        <v>10</v>
-      </c>
-      <c r="E4" t="str">
+        <v>119</v>
+      </c>
+      <c r="E4">
         <f>IF(ISBLANK(TESTS!I8),"",TESTS!I8)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F4" t="str">
         <f>IF(ISBLANK(TESTS!J8),"",TESTS!J8)</f>
@@ -1024,21 +1024,21 @@
         <f>IF(ISBLANK(TESTS!F9),"",TESTS!F9)</f>
         <v/>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <f>IF(ISBLANK(TESTS!G9),"",TESTS!G9)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="D5">
         <f>IF(ISBLANK(TESTS!H9),"",TESTS!H9)</f>
-        <v>10</v>
-      </c>
-      <c r="E5" t="str">
+        <v>40</v>
+      </c>
+      <c r="E5">
         <f>IF(ISBLANK(TESTS!I9),"",TESTS!I9)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F5">
         <f>IF(ISBLANK(TESTS!J9),"",TESTS!J9)</f>
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1056,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF122E6F-B308-B342-8A80-00A4D936B846}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="245" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="263" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1067,7 +1067,7 @@
     <col min="1" max="16384" width="6.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="F4" s="2">
         <f>F5+B1</f>
@@ -1099,15 +1099,14 @@
         <v>42</v>
       </c>
       <c r="J4" s="4">
-        <f>J5+B1</f>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="K4" s="1">
         <f>SUM(F4:J4)</f>
-        <v>310</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="F5" s="2">
         <v>20</v>
@@ -1129,7 +1128,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="D6" s="5">
         <v>40</v>
@@ -1152,8 +1151,15 @@
       <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S6" s="9">
+        <v>10</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="D7" s="6">
         <v>20</v>
@@ -1165,16 +1171,19 @@
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="13">
-        <v>20</v>
-      </c>
+      <c r="I7" s="13"/>
       <c r="J7" s="14"/>
       <c r="K7" s="20">
         <f>D7-SUM(F7:J7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="6">
         <v>180</v>
       </c>
@@ -1186,19 +1195,34 @@
         <v>10</v>
       </c>
       <c r="G8" s="13">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H8" s="13">
-        <v>10</v>
-      </c>
-      <c r="I8" s="13"/>
+        <v>119</v>
+      </c>
+      <c r="I8" s="13">
+        <v>5</v>
+      </c>
       <c r="J8" s="14"/>
       <c r="K8" s="20">
-        <f t="shared" ref="K7:K9" si="0">D8-SUM(F8:J8)</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="K8:K9" si="0">D8-SUM(F8:J8)</f>
+        <v>41</v>
+      </c>
+      <c r="S8" s="12">
+        <v>10</v>
+      </c>
+      <c r="T8" s="13">
+        <v>5</v>
+      </c>
+      <c r="U8" s="13">
+        <v>119</v>
+      </c>
+      <c r="V8" s="13">
+        <v>5</v>
+      </c>
+      <c r="W8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="19">
         <v>60</v>
       </c>
@@ -1207,20 +1231,37 @@
         <v>58</v>
       </c>
       <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16">
+        <v>5</v>
+      </c>
       <c r="H9" s="16">
+        <v>40</v>
+      </c>
+      <c r="I9" s="16">
+        <v>5</v>
+      </c>
+      <c r="J9" s="17">
         <v>10</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="17">
-        <v>30</v>
       </c>
       <c r="K9" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="15"/>
+      <c r="T9" s="16">
+        <v>5</v>
+      </c>
+      <c r="U9" s="16">
+        <v>40</v>
+      </c>
+      <c r="V9" s="16">
+        <v>5</v>
+      </c>
+      <c r="W9" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="1">
         <f>SUM(D6:D9)</f>
         <v>300</v>
@@ -1235,30 +1276,30 @@
       </c>
       <c r="G10" s="20">
         <f t="shared" ref="G10:J10" si="1">G5-SUM(G6:G9)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="20">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J10" s="20">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H12" s="1">
         <f>H5-SUM(H6:H9)</f>
-        <v>160</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
